--- a/Templates/logincases.xlsx
+++ b/Templates/logincases.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">Case No.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">Test Case</t>
   </si>
   <si>
     <t xml:space="preserve">UserName</t>
@@ -31,40 +31,37 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Remarks</t>
+    <t xml:space="preserve">username blank</t>
   </si>
   <si>
     <t xml:space="preserve">pass123</t>
   </si>
   <si>
-    <t xml:space="preserve">username blank</t>
+    <t xml:space="preserve">password blank</t>
   </si>
   <si>
     <t xml:space="preserve">vasadmin</t>
   </si>
   <si>
-    <t xml:space="preserve">password blank</t>
-  </si>
-  <si>
     <t xml:space="preserve">both username and password blank</t>
   </si>
   <si>
+    <t xml:space="preserve">Invalid usrname</t>
+  </si>
+  <si>
     <t xml:space="preserve">vasadm</t>
   </si>
   <si>
     <t xml:space="preserve">password1234</t>
   </si>
   <si>
-    <t xml:space="preserve">Invalid usrname</t>
-  </si>
-  <si>
     <t xml:space="preserve">Invalid password</t>
   </si>
   <si>
+    <t xml:space="preserve">Valid login credentials</t>
+  </si>
+  <si>
     <t xml:space="preserve">password123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid login credentials</t>
   </si>
 </sst>
 </file>
@@ -79,6 +76,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -160,15 +158,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -181,46 +180,31 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <f aca="false">A2+1</f>
-        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <f aca="false">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="D4" s="0" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <f aca="false">A4+1</f>
-        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -228,14 +212,10 @@
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <f aca="false">A5+1</f>
-        <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -243,23 +223,16 @@
       <c r="C6" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <f aca="false">A6+1</f>
-        <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Templates/logincases.xlsx
+++ b/Templates/logincases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">Test Case</t>
   </si>
@@ -31,31 +31,22 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">username blank</t>
+    <t xml:space="preserve">Invalid usrname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vasadm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vasadmin</t>
   </si>
   <si>
     <t xml:space="preserve">pass123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password blank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vasadmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">both username and password blank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid usrname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vasadm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid password</t>
   </si>
   <si>
     <t xml:space="preserve">Valid login credentials</t>
@@ -158,10 +149,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -185,54 +176,33 @@
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Templates/logincases.xlsx
+++ b/Templates/logincases.xlsx
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">Test Case</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
   <si>
     <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid usrname</t>
   </si>
   <si>
     <t xml:space="preserve">vasadm</t>
@@ -40,16 +34,10 @@
     <t xml:space="preserve">password1234</t>
   </si>
   <si>
-    <t xml:space="preserve">Invalid password</t>
-  </si>
-  <si>
     <t xml:space="preserve">vasadmin</t>
   </si>
   <si>
     <t xml:space="preserve">pass123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid login credentials</t>
   </si>
   <si>
     <t xml:space="preserve">password123</t>
@@ -149,16 +137,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.05"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -168,41 +155,29 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Templates/logincases.xlsx
+++ b/Templates/logincases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,10 +28,16 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
+    <t xml:space="preserve">Expected Message</t>
+  </si>
+  <si>
     <t xml:space="preserve">vasadm</t>
   </si>
   <si>
-    <t xml:space="preserve">password1234</t>
+    <t xml:space="preserve">password123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please register first</t>
   </si>
   <si>
     <t xml:space="preserve">vasadmin</t>
@@ -40,7 +46,10 @@
     <t xml:space="preserve">pass123</t>
   </si>
   <si>
-    <t xml:space="preserve">password123</t>
+    <t xml:space="preserve">Invalid password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login successful</t>
   </si>
 </sst>
 </file>
@@ -137,10 +146,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -155,29 +164,41 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Templates/logincases.xlsx
+++ b/Templates/logincases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">Invalid password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">login successful</t>
   </si>
 </sst>
 </file>
@@ -197,9 +194,6 @@
       <c r="B4" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
